--- a/biology/Médecine/Hôpital_général_de_Montréal/Hôpital_général_de_Montréal.xlsx
+++ b/biology/Médecine/Hôpital_général_de_Montréal/Hôpital_général_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Montr%C3%A9al</t>
+          <t>Hôpital_général_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital général de Montréal (en anglais : Montreal General Hospital) est un hôpital bilingue de Montréal fondé en 1819. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Montr%C3%A9al</t>
+          <t>Hôpital_général_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le General Hospital a été fondé en 1819. Montréal avait alors deux hôpitaux :
 l'hôtel-Dieu de Montréal et
 l'ancien hôpital général de Montréal des Sœurs grises.
-Les besoins grandissants d'une population en pleine expansion amenèrent des organisations caritatives, dont la Female Benevolent Society of Montreal et la Society for the Relief of Immigrants, à demander de l'aide pour la création d'un nouvel hôpital[1]. Des mécènes répondront à l'appel.
+Les besoins grandissants d'une population en pleine expansion amenèrent des organisations caritatives, dont la Female Benevolent Society of Montreal et la Society for the Relief of Immigrants, à demander de l'aide pour la création d'un nouvel hôpital. Des mécènes répondront à l'appel.
 Le 1er mai 1819, une maison de la rue Craig, avec 24 lits, sera utilisée temporairement.
 On emménage, trois ans plus tard, dans un nouvel édifice construit sur le boulevard Dorchester (aujourd'hui boulevard René-Lévesque) comptant 72 lits sur deux étages. L'établissement (démoli) occupait le quadrilatère délimité par le boulevard Dorchester et les rues De La Gauchetière, de Bullion et Saint-Dominique. Aujourd'hui le même emplacement est occupé par un centre de soins de longue durée (CHSLD).
 En 1924, l'hôpital a fusionné avec le Western General Hospital (les ailes D et E de l'ancien Hôpital  de Montréal pour enfants [Montreal Children's Hospital] aujourd'hui déménagé au Centre universitaire de santé McGill [CUSM] sur le site Glen) au coin de l'avenue Atwater et de la rue Tupper.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral_de_Montr%C3%A9al</t>
+          <t>Hôpital_général_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le General Hospital en 1890
